--- a/biology/Botanique/Allium_praecox/Allium_praecox.xlsx
+++ b/biology/Botanique/Allium_praecox/Allium_praecox.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oignon précoce
 Allium praecox est une espèce d'oignon sauvage connue sous le nom commun oignon précoce.
@@ -513,10 +525,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est originaire des collines et des montagnes du sud de la Californie et de la Baja California, où il pousse dans des zones ombragées sur des sols argileux à des altitudes pouvant atteindre 800 m.
-L'espèce a été signalée dans le Kern, San Bernardino, Los Angeles,  Riverside, Santa Barbara, Orange et Comtés de San Diego. Cela inclut certaines populations des Channel Islands[1],[2].
+L'espèce a été signalée dans le Kern, San Bernardino, Los Angeles,  Riverside, Santa Barbara, Orange et Comtés de San Diego. Cela inclut certaines populations des Channel Islands,.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium praecox pousse à partir d'un bulbe brunâtre ou grisâtre d'un à deux centimètres de long. La hampe florale est ronde en coupe transversale, atteignant 60 cm de long. Une seule plante a généralement deux ou trois longues feuilles carénées à peu près de la même longueur que la hampe ou parfois un peu plus longues.
-L' ombelle comprend jusqu'à 40 fleurs, chacune sur un long pédicelle mesurant jusqu'à 4 cm de long, les fleurs mesurent jusqu'à 15 mm de diamètre. Les tépales sont roses avec des veines violettes plus foncées. Les anthères sont violettes ou jaunes et le pollen jaune[1],[3],[4],[5].
+L' ombelle comprend jusqu'à 40 fleurs, chacune sur un long pédicelle mesurant jusqu'à 4 cm de long, les fleurs mesurent jusqu'à 15 mm de diamètre. Les tépales sont roses avec des veines violettes plus foncées. Les anthères sont violettes ou jaunes et le pollen jaune.
 </t>
         </is>
       </c>
